--- a/Consegne/Consegna n.4/QuestionariUtenti.xlsx
+++ b/Consegne/Consegna n.4/QuestionariUtenti.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Desktop\OneDrive_1_4-5-2022\Consegna n.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Documenti\GitHub\SwanisApp\Consegne\Consegna n.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BFF410-326A-4E4B-B1FC-66D9BB552A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCBED4-30A5-4815-A743-E3EF2CAB791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8693,7 +8693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
@@ -10154,7 +10154,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -10314,11 +10314,11 @@
         <v>0</v>
       </c>
       <c r="C8" s="16">
-        <f>MEDIE!F100</f>
+        <f>MEDIE!H94</f>
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>MEDIE!G100</f>
+        <f>MEDIE!H97</f>
         <v>0</v>
       </c>
       <c r="E8" s="16">
@@ -10335,11 +10335,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="16">
-        <f>MEDIE!F114</f>
+        <f>MEDIE!H108</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>MEDIE!G114</f>
+        <f>MEDIE!H111</f>
         <v>0</v>
       </c>
       <c r="E9" s="16">
@@ -10354,6 +10354,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A515E53002CF114584786A9F4F5BFE32" ma:contentTypeVersion="2" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="44edf9fe875534468fd0c2bdb255a987">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8326296-03fc-45dc-9d18-eca94a725608" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71bb35d5481de530d3f2621cb518b6f9" ns2:_="">
     <xsd:import namespace="a8326296-03fc-45dc-9d18-eca94a725608"/>
@@ -10485,22 +10500,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7239DB16-3DFC-4B30-872A-918F6EA26435}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3943D1-E20E-47DD-BA69-A8C83379ED2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A2503-A300-45EB-A376-764D39CF5BF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10516,21 +10533,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3943D1-E20E-47DD-BA69-A8C83379ED2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7239DB16-3DFC-4B30-872A-918F6EA26435}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Consegne/Consegna n.4/QuestionariUtenti.xlsx
+++ b/Consegne/Consegna n.4/QuestionariUtenti.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Documenti\GitHub\SwanisApp\Consegne\Consegna n.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCBED4-30A5-4815-A743-E3EF2CAB791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E960538-704F-4131-95A0-C75B94681979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BEHAVIOURABILITY" sheetId="1" r:id="rId1"/>
     <sheet name="Quest.Utente1" sheetId="2" r:id="rId2"/>
-    <sheet name="Quest.Utente2" sheetId="8" r:id="rId3"/>
-    <sheet name="Quest.Utente3" sheetId="9" r:id="rId4"/>
-    <sheet name="Quest.Utente4" sheetId="10" r:id="rId5"/>
-    <sheet name="Quest.Utente5" sheetId="11" r:id="rId6"/>
+    <sheet name="Quest.Utente2" sheetId="12" r:id="rId3"/>
+    <sheet name="Quest.Utente3" sheetId="15" r:id="rId4"/>
+    <sheet name="Quest.Utente4" sheetId="13" r:id="rId5"/>
+    <sheet name="Quest.Utente5" sheetId="14" r:id="rId6"/>
     <sheet name="MEDIE" sheetId="7" r:id="rId7"/>
     <sheet name="TabRisultati" sheetId="6" r:id="rId8"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="162">
   <si>
     <t>Decision Making</t>
   </si>
@@ -546,6 +546,15 @@
   <si>
     <t>T4.3</t>
   </si>
+  <si>
+    <t>Come valuti l'interfaccia per eseguire il task?</t>
+  </si>
+  <si>
+    <t>Come valuti il livello di supporto e i feedback che ricevi dal sistema per eseguire il task?</t>
+  </si>
+  <si>
+    <t>Come valuti il livello di supporto e i feedback che ricevi da strumenti  informatici per eseguire il task?</t>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -602,13 +611,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -689,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -732,9 +734,6 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -745,7 +744,13 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1028,16 +1033,16 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1187,42 +1192,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1237,20 +1242,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A75" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1321,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -1331,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1361,11 +1366,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
@@ -1376,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -1386,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -1416,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
@@ -1426,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1442,7 +1447,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -1467,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1522,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -1537,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -1552,11 +1557,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G22" t="s">
@@ -1567,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1577,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -1617,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -1633,7 +1638,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -1658,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -1688,12 +1693,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -1703,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
@@ -1718,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -1728,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -1773,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -1783,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>45</v>
@@ -1823,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -1839,7 +1844,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>18</v>
@@ -1864,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -1894,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
@@ -1909,7 +1914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>33</v>
@@ -1919,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -1949,7 +1954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>102</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>40</v>
@@ -1974,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>45</v>
@@ -2014,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -2030,7 +2035,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -2045,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>18</v>
@@ -2055,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
@@ -2070,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
@@ -2100,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>33</v>
@@ -2110,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>40</v>
@@ -2165,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
@@ -2180,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
@@ -2195,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>45</v>
@@ -2205,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>117</v>
       </c>
@@ -2221,7 +2226,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>18</v>
@@ -2246,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>119</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -2270,19 +2275,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>33</v>
@@ -2292,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>123</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>124</v>
       </c>
@@ -2328,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>40</v>
@@ -2338,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>126</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
         <v>45</v>
@@ -2372,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
@@ -2385,7 +2390,7 @@
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>128</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>18</v>
@@ -2407,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
@@ -2419,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
@@ -2431,19 +2436,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>33</v>
@@ -2453,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>132</v>
       </c>
@@ -2465,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>133</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>134</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>40</v>
@@ -2499,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>135</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>136</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>45</v>
@@ -2533,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>137</v>
       </c>
@@ -2546,7 +2551,7 @@
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>138</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>18</v>
@@ -2568,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>139</v>
       </c>
@@ -2580,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
@@ -2592,19 +2597,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
@@ -2614,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>142</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
@@ -2638,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>144</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>40</v>
@@ -2660,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>145</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>146</v>
       </c>
@@ -2684,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>45</v>
@@ -2694,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
@@ -2707,7 +2712,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
@@ -2720,29 +2725,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C405ED-86D8-44C3-AD82-EA3B8C631DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D8CA33-BC24-45D2-AAD9-A1BEF50E8EE1}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H113"/>
+    <sheetView topLeftCell="A57" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -2806,14 +2811,14 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -2823,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -2853,11 +2858,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
@@ -2868,7 +2873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -2878,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -2893,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
@@ -2918,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -2934,7 +2939,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -2959,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -3014,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -3029,7 +3034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -3044,11 +3049,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G22" t="s">
@@ -3059,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -3069,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -3109,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -3125,7 +3130,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -3140,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -3150,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -3165,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -3180,12 +3185,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -3195,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -3220,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
@@ -3235,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -3265,7 +3270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -3275,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -3305,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>45</v>
@@ -3315,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -3331,7 +3336,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>18</v>
@@ -3356,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
@@ -3371,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -3386,7 +3391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>33</v>
@@ -3411,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -3441,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>102</v>
       </c>
@@ -3456,7 +3461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>40</v>
@@ -3466,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
@@ -3496,7 +3501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>45</v>
@@ -3506,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -3522,7 +3527,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>18</v>
@@ -3547,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
@@ -3592,7 +3597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>33</v>
@@ -3602,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -3632,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -3647,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>40</v>
@@ -3657,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
@@ -3672,7 +3677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
@@ -3687,7 +3692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>45</v>
@@ -3697,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>117</v>
       </c>
@@ -3713,7 +3718,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>18</v>
@@ -3738,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>119</v>
       </c>
@@ -3750,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -3762,19 +3767,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>33</v>
@@ -3784,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>123</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>124</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>40</v>
@@ -3830,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>126</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
         <v>45</v>
@@ -3864,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
@@ -3877,7 +3882,7 @@
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>128</v>
       </c>
@@ -3889,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>18</v>
@@ -3899,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
@@ -3911,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
@@ -3923,19 +3928,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>33</v>
@@ -3945,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>132</v>
       </c>
@@ -3957,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>133</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>134</v>
       </c>
@@ -3981,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>40</v>
@@ -3991,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>135</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>136</v>
       </c>
@@ -4015,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>45</v>
@@ -4025,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>137</v>
       </c>
@@ -4038,7 +4043,7 @@
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>138</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>18</v>
@@ -4060,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>139</v>
       </c>
@@ -4072,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
@@ -4084,19 +4089,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
@@ -4106,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>142</v>
       </c>
@@ -4118,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>144</v>
       </c>
@@ -4142,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>40</v>
@@ -4152,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>145</v>
       </c>
@@ -4164,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>146</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>45</v>
@@ -4186,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
@@ -4199,7 +4204,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
@@ -4217,23 +4222,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85234B68-B734-4D8F-9CE4-AA02FCC034B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAE3A0D-778B-4A74-9865-75A24C22611A}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H113"/>
+    <sheetView topLeftCell="A66" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -4259,7 +4264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -4289,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -4297,14 +4302,14 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -4314,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -4329,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -4344,11 +4349,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
@@ -4359,7 +4364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -4369,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -4399,7 +4404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
@@ -4409,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -4425,7 +4430,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -4450,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -4480,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -4495,7 +4500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -4505,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -4535,11 +4540,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G22" t="s">
@@ -4550,7 +4555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -4560,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -4590,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -4600,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -4616,7 +4621,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -4641,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -4671,12 +4676,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -4686,7 +4691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -4711,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
@@ -4726,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -4741,7 +4746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -4756,7 +4761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -4766,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -4781,7 +4786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -4796,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>45</v>
@@ -4806,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -4822,7 +4827,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
@@ -4837,7 +4842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>18</v>
@@ -4847,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
@@ -4862,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -4877,7 +4882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
@@ -4892,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>33</v>
@@ -4902,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -4917,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -4932,7 +4937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>102</v>
       </c>
@@ -4947,7 +4952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>40</v>
@@ -4957,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>45</v>
@@ -4997,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -5013,7 +5018,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>18</v>
@@ -5038,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -5068,7 +5073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>33</v>
@@ -5093,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -5108,7 +5113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>40</v>
@@ -5148,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>45</v>
@@ -5188,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>117</v>
       </c>
@@ -5204,7 +5209,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -5219,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>18</v>
@@ -5229,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>119</v>
       </c>
@@ -5241,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -5253,19 +5258,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>33</v>
@@ -5275,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>123</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>124</v>
       </c>
@@ -5311,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>40</v>
@@ -5321,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>126</v>
       </c>
@@ -5345,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
         <v>45</v>
@@ -5355,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
@@ -5368,7 +5373,7 @@
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>128</v>
       </c>
@@ -5380,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>18</v>
@@ -5390,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
@@ -5414,19 +5419,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>33</v>
@@ -5436,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>132</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>133</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>134</v>
       </c>
@@ -5472,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>40</v>
@@ -5482,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>135</v>
       </c>
@@ -5494,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>136</v>
       </c>
@@ -5506,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>45</v>
@@ -5516,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>137</v>
       </c>
@@ -5529,7 +5534,7 @@
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>138</v>
       </c>
@@ -5541,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>18</v>
@@ -5551,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>139</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
@@ -5575,19 +5580,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
@@ -5597,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>142</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
@@ -5621,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>144</v>
       </c>
@@ -5633,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>40</v>
@@ -5643,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>145</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>146</v>
       </c>
@@ -5667,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>45</v>
@@ -5677,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
@@ -5690,7 +5695,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
@@ -5708,23 +5713,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A3D4C-9721-428D-8523-494E9BBDF607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25360480-9DD4-4CBB-AB34-0F078E44AF13}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H113"/>
+    <sheetView topLeftCell="A121" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H113" sqref="H2:H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -5750,7 +5755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -5761,11 +5766,11 @@
         <v>28</v>
       </c>
       <c r="H2">
-        <f>IF(C2="X",1)+IF(D2="X",2)+IF(E2="X",3)+IF(F2="X",4)+IF(G2="X",5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f t="shared" ref="H2:H65" si="0">IF(C2="X",1)+IF(D2="X",2)+IF(E2="X",3)+IF(F2="X",4)+IF(G2="X",5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -5776,11 +5781,11 @@
         <v>28</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">IF(C3="X",1)+IF(D3="X",2)+IF(E3="X",3)+IF(F3="X",4)+IF(G3="X",5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -5788,14 +5793,14 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -5805,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -5820,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -5835,11 +5840,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
@@ -5850,7 +5855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -5860,22 +5865,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
+      <c r="G10" t="s">
+        <v>152</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -5890,7 +5895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
@@ -5900,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -5916,7 +5921,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -5941,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -5986,7 +5991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -5996,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -6011,7 +6016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -6026,11 +6031,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G22" t="s">
@@ -6041,7 +6046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -6051,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -6066,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -6091,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -6107,7 +6112,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -6132,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -6162,12 +6167,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -6177,7 +6182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -6202,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
@@ -6217,7 +6222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -6232,7 +6237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -6247,7 +6252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -6257,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -6272,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -6287,7 +6292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>45</v>
@@ -6297,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -6313,7 +6318,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
@@ -6328,7 +6333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>18</v>
@@ -6338,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
@@ -6353,7 +6358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -6368,7 +6373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>33</v>
@@ -6393,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -6408,7 +6413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -6423,7 +6428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>102</v>
       </c>
@@ -6438,7 +6443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>40</v>
@@ -6448,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -6463,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
@@ -6478,7 +6483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>45</v>
@@ -6488,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -6504,7 +6509,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -6519,7 +6524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>18</v>
@@ -6529,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
@@ -6544,7 +6549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -6559,7 +6564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
@@ -6574,7 +6579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>33</v>
@@ -6584,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -6599,22 +6604,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>28</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -6629,32 +6634,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f t="shared" ref="H66:H112" si="1">IF(C66="X",1)+IF(D66="X",2)+IF(E66="X",3)+IF(F66="X",4)+IF(G66="X",5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>28</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H113" si="1">IF(C67="X",1)+IF(D67="X",2)+IF(E67="X",3)+IF(F67="X",4)+IF(G67="X",5)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>45</v>
@@ -6679,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>117</v>
       </c>
@@ -6695,7 +6700,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -6710,7 +6715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>18</v>
@@ -6720,43 +6725,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="G73" t="s">
+        <v>152</v>
+      </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="G74" t="s">
+        <v>152</v>
+      </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
+      </c>
+      <c r="G75" t="s">
+        <v>152</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>33</v>
@@ -6766,43 +6780,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="F77" t="s">
+        <v>152</v>
+      </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="G78" t="s">
+        <v>152</v>
+      </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="F79" t="s">
+        <v>152</v>
+      </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>40</v>
@@ -6812,31 +6835,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="F81" t="s">
+        <v>152</v>
+      </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="G82" t="s">
+        <v>152</v>
+      </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
         <v>45</v>
@@ -6846,32 +6875,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="F84" t="s">
+        <v>152</v>
+      </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="G85" t="s">
+        <v>152</v>
+      </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>18</v>
@@ -6881,43 +6916,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="G87" t="s">
+        <v>152</v>
+      </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="F88" t="s">
+        <v>152</v>
+      </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
+      </c>
+      <c r="G89" t="s">
+        <v>152</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>33</v>
@@ -6927,19 +6971,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="G91" t="s">
+        <v>152</v>
+      </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>133</v>
       </c>
@@ -6951,19 +6998,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="F93" t="s">
+        <v>152</v>
+      </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>40</v>
@@ -6973,31 +7023,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="G95" t="s">
+        <v>152</v>
+      </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="G96" t="s">
+        <v>152</v>
+      </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>45</v>
@@ -7007,32 +7063,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="F98" t="s">
+        <v>152</v>
+      </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="F99" t="s">
+        <v>152</v>
+      </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>18</v>
@@ -7042,43 +7104,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>151</v>
       </c>
+      <c r="G101" t="s">
+        <v>152</v>
+      </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="G102" t="s">
+        <v>152</v>
+      </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
+      </c>
+      <c r="G103" t="s">
+        <v>152</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
@@ -7088,43 +7159,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="G105" t="s">
+        <v>152</v>
+      </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F106" t="s">
+        <v>152</v>
+      </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G107" t="s">
+        <v>152</v>
+      </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>40</v>
@@ -7134,31 +7214,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="F109" t="s">
+        <v>152</v>
+      </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="F110" t="s">
+        <v>152</v>
+      </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>45</v>
@@ -7168,29 +7254,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="G112" t="s">
+        <v>152</v>
+      </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="F113" t="s">
+        <v>152</v>
+      </c>
       <c r="H113">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(C113="X",1)+IF(D113="X",2)+IF(E113="X",3)+IF(F113="X",4)+IF(G113="X",5)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7199,23 +7291,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5301A78-B294-42BF-B136-E0C704B8C733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81A7553-F86F-47D4-B1CA-C5C2419EE6A4}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A113" sqref="A1:B113"/>
+    <sheetView topLeftCell="A103" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="147.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -7241,7 +7333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -7256,7 +7348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -7271,7 +7363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -7279,14 +7371,14 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -7296,22 +7388,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
+      <c r="G6" t="s">
+        <v>152</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -7319,18 +7411,18 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
@@ -7341,7 +7433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -7351,37 +7443,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
+      <c r="G10" t="s">
+        <v>152</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
+      <c r="F11" t="s">
+        <v>152</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
@@ -7391,38 +7483,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>28</v>
+      <c r="G13" t="s">
+        <v>152</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
+      <c r="F14" t="s">
+        <v>152</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -7432,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -7447,7 +7539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -7462,7 +7554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -7477,7 +7569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -7487,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -7502,7 +7594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -7517,11 +7609,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G22" t="s">
@@ -7532,7 +7624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -7542,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -7557,7 +7649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -7582,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -7598,7 +7690,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -7613,7 +7705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -7623,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -7638,7 +7730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -7653,12 +7745,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -7668,7 +7760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
@@ -7683,7 +7775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -7693,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
@@ -7708,7 +7800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -7723,7 +7815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -7738,7 +7830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -7748,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -7763,7 +7855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -7778,7 +7870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>45</v>
@@ -7788,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -7804,7 +7896,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
@@ -7819,7 +7911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>18</v>
@@ -7829,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
@@ -7844,7 +7936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -7859,7 +7951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
@@ -7874,7 +7966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>33</v>
@@ -7884,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -7899,7 +7991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -7914,7 +8006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>102</v>
       </c>
@@ -7929,7 +8021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>40</v>
@@ -7939,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -7954,7 +8046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
@@ -7969,7 +8061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>45</v>
@@ -7979,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -7995,7 +8087,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -8010,7 +8102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>18</v>
@@ -8020,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
@@ -8035,7 +8127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -8050,7 +8142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
@@ -8065,7 +8157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>33</v>
@@ -8075,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -8090,7 +8182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -8105,7 +8197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -8120,7 +8212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>40</v>
@@ -8130,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
@@ -8145,7 +8237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
@@ -8160,7 +8252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>45</v>
@@ -8170,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>117</v>
       </c>
@@ -8186,7 +8278,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -8201,7 +8293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>18</v>
@@ -8211,43 +8303,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="G73" t="s">
+        <v>152</v>
+      </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="G74" t="s">
+        <v>152</v>
+      </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
+      </c>
+      <c r="G75" t="s">
+        <v>152</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>33</v>
@@ -8257,43 +8358,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="F77" t="s">
+        <v>152</v>
+      </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F78" t="s">
+        <v>152</v>
+      </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="F79" t="s">
+        <v>152</v>
+      </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>40</v>
@@ -8303,385 +8413,428 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="F81" t="s">
+        <v>152</v>
+      </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="F82" t="s">
+        <v>152</v>
+      </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="84" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="G84" t="s">
+        <v>152</v>
+      </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="G85" t="s">
+        <v>152</v>
+      </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="87" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="G87" t="s">
+        <v>152</v>
+      </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="G88" t="s">
+        <v>152</v>
+      </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
+      </c>
+      <c r="G89" t="s">
+        <v>152</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="91" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="F91" t="s">
+        <v>152</v>
+      </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F92" t="s">
+        <v>152</v>
+      </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="F93" t="s">
+        <v>152</v>
+      </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="95" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="G95" t="s">
+        <v>152</v>
+      </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="G96" t="s">
+        <v>152</v>
+      </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="F97" t="s">
+        <v>152</v>
+      </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="G98" t="s">
+        <v>152</v>
+      </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="F99" t="s">
+        <v>152</v>
+      </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="101" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>151</v>
       </c>
+      <c r="F101" t="s">
+        <v>152</v>
+      </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="G102" t="s">
+        <v>152</v>
+      </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
+      </c>
+      <c r="F103" t="s">
+        <v>152</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="105" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="F105" t="s">
+        <v>152</v>
+      </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="G106" t="s">
+        <v>152</v>
+      </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="F107" t="s">
+        <v>152</v>
+      </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="109" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="F109" t="s">
+        <v>152</v>
+      </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="G110" t="s">
+        <v>152</v>
+      </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="112" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="F112" t="s">
+        <v>152</v>
+      </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="G113" t="s">
+        <v>152</v>
+      </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8693,22 +8846,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A73" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="70.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="9" max="9" width="26.69921875" customWidth="1"/>
+    <col min="10" max="10" width="43.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -8732,7 +8885,7 @@
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -8740,14 +8893,14 @@
         <v>27</v>
       </c>
       <c r="H2" s="10">
-        <f>AVERAGE(Quest.Utente1!H2,Quest.Utente2!H2,Quest.Utente3!H2,Quest.Utente4!H2,Quest.Utente5!H2)</f>
+        <f>AVERAGE(Quest.Utente1!H2,Quest.Utente2!H2,Quest.Utente5!H2,Quest.Utente4!H2,Quest.Utente3!H2)</f>
         <v>4</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -8755,14 +8908,14 @@
         <v>30</v>
       </c>
       <c r="H3" s="10">
-        <f>AVERAGE(Quest.Utente1!H3,Quest.Utente2!H3,Quest.Utente3!H3,Quest.Utente4!H3,Quest.Utente5!H3)</f>
+        <f>AVERAGE(Quest.Utente1!H3,Quest.Utente2!H3,Quest.Utente5!H3,Quest.Utente4!H3,Quest.Utente3!H3)</f>
         <v>3</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -8770,14 +8923,14 @@
         <v>32</v>
       </c>
       <c r="H4" s="10">
-        <f>AVERAGE(Quest.Utente1!H4,Quest.Utente2!H4,Quest.Utente3!H4,Quest.Utente4!H4,Quest.Utente5!H4)</f>
+        <f>AVERAGE(Quest.Utente1!H4,Quest.Utente2!H4,Quest.Utente5!H4,Quest.Utente4!H4,Quest.Utente3!H4)</f>
         <v>5</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -8793,7 +8946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -8801,11 +8954,11 @@
         <v>35</v>
       </c>
       <c r="H6" s="10">
-        <f>AVERAGE(Quest.Utente1!H6,Quest.Utente2!H6,Quest.Utente3!H6,Quest.Utente4!H6,Quest.Utente5!H6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H6,Quest.Utente2!H6,Quest.Utente5!H6,Quest.Utente4!H6,Quest.Utente3!H6)</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -8813,36 +8966,36 @@
         <v>37</v>
       </c>
       <c r="H7" s="10">
-        <f>AVERAGE(Quest.Utente1!H7,Quest.Utente2!H7,Quest.Utente3!H7,Quest.Utente4!H7,Quest.Utente5!H7)</f>
+        <f>AVERAGE(Quest.Utente1!H7,Quest.Utente2!H7,Quest.Utente5!H7,Quest.Utente4!H7,Quest.Utente3!H7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="10">
-        <f>AVERAGE(Quest.Utente1!H8,Quest.Utente2!H8,Quest.Utente3!H8,Quest.Utente4!H8,Quest.Utente5!H8)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H8,Quest.Utente2!H8,Quest.Utente5!H8,Quest.Utente4!H8,Quest.Utente3!H8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="11">
         <f>AVERAGE(H6:H8)</f>
-        <v>3.3333333333333335</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -8850,11 +9003,11 @@
         <v>42</v>
       </c>
       <c r="H10" s="10">
-        <f>AVERAGE(Quest.Utente1!H10,Quest.Utente2!H10,Quest.Utente3!H10,Quest.Utente4!H10,Quest.Utente5!H10)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H10,Quest.Utente2!H10,Quest.Utente5!H10,Quest.Utente4!H10,Quest.Utente3!H10)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -8862,24 +9015,24 @@
         <v>44</v>
       </c>
       <c r="H11" s="10">
-        <f>AVERAGE(Quest.Utente1!H11,Quest.Utente2!H11,Quest.Utente3!H11,Quest.Utente4!H11,Quest.Utente5!H11)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H11,Quest.Utente2!H11,Quest.Utente5!H11,Quest.Utente4!H11,Quest.Utente3!H11)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="11">
         <f>AVERAGE(H10:H11)</f>
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -8887,12 +9040,12 @@
         <v>47</v>
       </c>
       <c r="H13" s="10">
-        <f>AVERAGE(Quest.Utente1!H13,Quest.Utente2!H13,Quest.Utente3!H13,Quest.Utente4!H13,Quest.Utente5!H13)</f>
-        <v>3</v>
+        <f>AVERAGE(Quest.Utente1!H13,Quest.Utente2!H13,Quest.Utente5!H13,Quest.Utente4!H13,Quest.Utente3!H13)</f>
+        <v>3.4</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -8900,24 +9053,24 @@
         <v>49</v>
       </c>
       <c r="H14" s="10">
-        <f>AVERAGE(Quest.Utente1!H14,Quest.Utente2!H14,Quest.Utente3!H14,Quest.Utente4!H14,Quest.Utente5!H14)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H14,Quest.Utente2!H14,Quest.Utente5!H14,Quest.Utente4!H14,Quest.Utente3!H14)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="11">
         <f>AVERAGE(H13:H14)</f>
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -8925,12 +9078,12 @@
         <v>51</v>
       </c>
       <c r="H16" s="10">
-        <f>AVERAGE(Quest.Utente1!H16,Quest.Utente2!H16,Quest.Utente3!H16,Quest.Utente4!H16,Quest.Utente5!H16)</f>
+        <f>AVERAGE(Quest.Utente1!H16,Quest.Utente2!H16,Quest.Utente5!H16,Quest.Utente4!H16,Quest.Utente3!H16)</f>
         <v>4</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -8938,11 +9091,11 @@
         <v>30</v>
       </c>
       <c r="H17" s="10">
-        <f>AVERAGE(Quest.Utente1!H17,Quest.Utente2!H17,Quest.Utente3!H17,Quest.Utente4!H17,Quest.Utente5!H17)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H17,Quest.Utente2!H17,Quest.Utente5!H17,Quest.Utente4!H17,Quest.Utente3!H17)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -8950,11 +9103,11 @@
         <v>32</v>
       </c>
       <c r="H18" s="10">
-        <f>AVERAGE(Quest.Utente1!H18,Quest.Utente2!H18,Quest.Utente3!H18,Quest.Utente4!H18,Quest.Utente5!H18)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H18,Quest.Utente2!H18,Quest.Utente5!H18,Quest.Utente4!H18,Quest.Utente3!H18)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -8967,7 +9120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -8975,11 +9128,11 @@
         <v>35</v>
       </c>
       <c r="H20" s="10">
-        <f>AVERAGE(Quest.Utente1!H20,Quest.Utente2!H20,Quest.Utente3!H20,Quest.Utente4!H20,Quest.Utente5!H20)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H20,Quest.Utente2!H20,Quest.Utente5!H20,Quest.Utente4!H20,Quest.Utente3!H20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -8987,23 +9140,23 @@
         <v>37</v>
       </c>
       <c r="H21" s="10">
-        <f>AVERAGE(Quest.Utente1!H21,Quest.Utente2!H21,Quest.Utente3!H21,Quest.Utente4!H21,Quest.Utente5!H21)</f>
+        <f>AVERAGE(Quest.Utente1!H21,Quest.Utente2!H21,Quest.Utente5!H21,Quest.Utente4!H21,Quest.Utente3!H21)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="10">
-        <f>AVERAGE(Quest.Utente1!H22,Quest.Utente2!H22,Quest.Utente3!H22,Quest.Utente4!H22,Quest.Utente5!H22)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H22,Quest.Utente2!H22,Quest.Utente5!H22,Quest.Utente4!H22,Quest.Utente3!H22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -9016,7 +9169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -9024,11 +9177,11 @@
         <v>42</v>
       </c>
       <c r="H24" s="10">
-        <f>AVERAGE(Quest.Utente1!H24,Quest.Utente2!H24,Quest.Utente3!H24,Quest.Utente4!H24,Quest.Utente5!H24)</f>
+        <f>AVERAGE(Quest.Utente1!H24,Quest.Utente2!H24,Quest.Utente5!H24,Quest.Utente4!H24,Quest.Utente3!H24)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -9036,11 +9189,11 @@
         <v>44</v>
       </c>
       <c r="H25" s="10">
-        <f>AVERAGE(Quest.Utente1!H25,Quest.Utente2!H25,Quest.Utente3!H25,Quest.Utente4!H25,Quest.Utente5!H25)</f>
+        <f>AVERAGE(Quest.Utente1!H25,Quest.Utente2!H25,Quest.Utente5!H25,Quest.Utente4!H25,Quest.Utente3!H25)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -9053,7 +9206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -9061,11 +9214,11 @@
         <v>47</v>
       </c>
       <c r="H27" s="10">
-        <f>AVERAGE(Quest.Utente1!H27,Quest.Utente2!H27,Quest.Utente3!H27,Quest.Utente4!H27,Quest.Utente5!H27)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H27,Quest.Utente2!H27,Quest.Utente5!H27,Quest.Utente4!H27,Quest.Utente3!H27)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -9073,11 +9226,11 @@
         <v>49</v>
       </c>
       <c r="H28" s="10">
-        <f>AVERAGE(Quest.Utente1!H28,Quest.Utente2!H28,Quest.Utente3!H28,Quest.Utente4!H28,Quest.Utente5!H28)</f>
+        <f>AVERAGE(Quest.Utente1!H28,Quest.Utente2!H28,Quest.Utente5!H28,Quest.Utente4!H28,Quest.Utente3!H28)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>18</v>
@@ -9091,7 +9244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -9099,11 +9252,11 @@
         <v>96</v>
       </c>
       <c r="H30" s="10">
-        <f>AVERAGE(Quest.Utente1!H30,Quest.Utente2!H30,Quest.Utente3!H30,Quest.Utente4!H30,Quest.Utente5!H30)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H30,Quest.Utente2!H30,Quest.Utente5!H30,Quest.Utente4!H30,Quest.Utente3!H30)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -9111,11 +9264,11 @@
         <v>30</v>
       </c>
       <c r="H31" s="10">
-        <f>AVERAGE(Quest.Utente1!H31,Quest.Utente2!H31,Quest.Utente3!H31,Quest.Utente4!H31,Quest.Utente5!H31)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H31,Quest.Utente2!H31,Quest.Utente5!H31,Quest.Utente4!H31,Quest.Utente3!H31)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
@@ -9123,24 +9276,24 @@
         <v>61</v>
       </c>
       <c r="H32" s="10">
-        <f>AVERAGE(Quest.Utente1!H32,Quest.Utente2!H32,Quest.Utente3!H32,Quest.Utente4!H32,Quest.Utente5!H32)</f>
+        <f>AVERAGE(Quest.Utente1!H32,Quest.Utente2!H32,Quest.Utente5!H32,Quest.Utente4!H32,Quest.Utente3!H32)</f>
         <v>5</v>
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="H33" s="10">
-        <f>AVERAGE(Quest.Utente1!H33,Quest.Utente2!H33,Quest.Utente3!H33,Quest.Utente4!H33,Quest.Utente5!H33)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H33,Quest.Utente2!H33,Quest.Utente5!H33,Quest.Utente4!H33,Quest.Utente3!H33)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -9153,7 +9306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
@@ -9161,11 +9314,11 @@
         <v>35</v>
       </c>
       <c r="H35" s="10">
-        <f>AVERAGE(Quest.Utente1!H35,Quest.Utente2!H35,Quest.Utente3!H35,Quest.Utente4!H35,Quest.Utente5!H35)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H35,Quest.Utente2!H35,Quest.Utente5!H35,Quest.Utente4!H35,Quest.Utente3!H35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -9173,11 +9326,11 @@
         <v>37</v>
       </c>
       <c r="H36" s="10">
-        <f>AVERAGE(Quest.Utente1!H36,Quest.Utente2!H36,Quest.Utente3!H36,Quest.Utente4!H36,Quest.Utente5!H36)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H36,Quest.Utente2!H36,Quest.Utente5!H36,Quest.Utente4!H36,Quest.Utente3!H36)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -9185,11 +9338,11 @@
         <v>63</v>
       </c>
       <c r="H37" s="10">
-        <f>AVERAGE(Quest.Utente1!H37,Quest.Utente2!H37,Quest.Utente3!H37,Quest.Utente4!H37,Quest.Utente5!H37)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H37,Quest.Utente2!H37,Quest.Utente5!H37,Quest.Utente4!H37,Quest.Utente3!H37)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -9202,7 +9355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -9210,11 +9363,11 @@
         <v>42</v>
       </c>
       <c r="H39" s="10">
-        <f>AVERAGE(Quest.Utente1!H39,Quest.Utente2!H39,Quest.Utente3!H39,Quest.Utente4!H39,Quest.Utente5!H39)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H39,Quest.Utente2!H39,Quest.Utente5!H39,Quest.Utente4!H39,Quest.Utente3!H39)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -9222,11 +9375,11 @@
         <v>64</v>
       </c>
       <c r="H40" s="10">
-        <f>AVERAGE(Quest.Utente1!H40,Quest.Utente2!H40,Quest.Utente3!H40,Quest.Utente4!H40,Quest.Utente5!H40)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H40,Quest.Utente2!H40,Quest.Utente5!H40,Quest.Utente4!H40,Quest.Utente3!H40)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>45</v>
@@ -9239,7 +9392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -9247,11 +9400,11 @@
         <v>47</v>
       </c>
       <c r="H42" s="10">
-        <f>AVERAGE(Quest.Utente1!H42,Quest.Utente2!H42,Quest.Utente3!H42,Quest.Utente4!H42,Quest.Utente5!H42)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H42,Quest.Utente2!H42,Quest.Utente5!H42,Quest.Utente4!H42,Quest.Utente3!H42)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
@@ -9259,11 +9412,11 @@
         <v>49</v>
       </c>
       <c r="H43" s="10">
-        <f>AVERAGE(Quest.Utente1!H43,Quest.Utente2!H43,Quest.Utente3!H43,Quest.Utente4!H43,Quest.Utente5!H43)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H43,Quest.Utente2!H43,Quest.Utente5!H43,Quest.Utente4!H43,Quest.Utente3!H43)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>18</v>
@@ -9276,7 +9429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
@@ -9284,12 +9437,12 @@
         <v>107</v>
       </c>
       <c r="H45" s="10">
-        <f>AVERAGE(Quest.Utente1!H45,Quest.Utente2!H45,Quest.Utente3!H45,Quest.Utente4!H45,Quest.Utente5!H45)</f>
+        <f>AVERAGE(Quest.Utente1!H45,Quest.Utente2!H45,Quest.Utente5!H45,Quest.Utente4!H45,Quest.Utente3!H45)</f>
         <v>4</v>
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -9297,23 +9450,23 @@
         <v>30</v>
       </c>
       <c r="H46" s="10">
-        <f>AVERAGE(Quest.Utente1!H46,Quest.Utente2!H46,Quest.Utente3!H46,Quest.Utente4!H46,Quest.Utente5!H46)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H46,Quest.Utente2!H46,Quest.Utente5!H46,Quest.Utente4!H46,Quest.Utente3!H46)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="H47" s="10">
-        <f>AVERAGE(Quest.Utente1!H47,Quest.Utente2!H47,Quest.Utente3!H47,Quest.Utente4!H47,Quest.Utente5!H47)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H47,Quest.Utente2!H47,Quest.Utente5!H47,Quest.Utente4!H47,Quest.Utente3!H47)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>33</v>
@@ -9327,7 +9480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -9335,11 +9488,11 @@
         <v>35</v>
       </c>
       <c r="H49" s="10">
-        <f>AVERAGE(Quest.Utente1!H49,Quest.Utente2!H49,Quest.Utente3!H49,Quest.Utente4!H49,Quest.Utente5!H49)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H49,Quest.Utente2!H49,Quest.Utente5!H49,Quest.Utente4!H49,Quest.Utente3!H49)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -9347,11 +9500,11 @@
         <v>37</v>
       </c>
       <c r="H50" s="10">
-        <f>AVERAGE(Quest.Utente1!H50,Quest.Utente2!H50,Quest.Utente3!H50,Quest.Utente4!H50,Quest.Utente5!H50)</f>
+        <f>AVERAGE(Quest.Utente1!H50,Quest.Utente2!H50,Quest.Utente5!H50,Quest.Utente4!H50,Quest.Utente3!H50)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>102</v>
       </c>
@@ -9359,11 +9512,11 @@
         <v>63</v>
       </c>
       <c r="H51" s="10">
-        <f>AVERAGE(Quest.Utente1!H51,Quest.Utente2!H51,Quest.Utente3!H51,Quest.Utente4!H51,Quest.Utente5!H51)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H51,Quest.Utente2!H51,Quest.Utente5!H51,Quest.Utente4!H51,Quest.Utente3!H51)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>40</v>
@@ -9376,7 +9529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -9384,11 +9537,11 @@
         <v>42</v>
       </c>
       <c r="H53" s="10">
-        <f>AVERAGE(Quest.Utente1!H53,Quest.Utente2!H53,Quest.Utente3!H53,Quest.Utente4!H53,Quest.Utente5!H53)</f>
+        <f>AVERAGE(Quest.Utente1!H53,Quest.Utente2!H53,Quest.Utente5!H53,Quest.Utente4!H53,Quest.Utente3!H53)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
@@ -9396,11 +9549,11 @@
         <v>64</v>
       </c>
       <c r="H54" s="10">
-        <f>AVERAGE(Quest.Utente1!H54,Quest.Utente2!H54,Quest.Utente3!H54,Quest.Utente4!H54,Quest.Utente5!H54)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H54,Quest.Utente2!H54,Quest.Utente5!H54,Quest.Utente4!H54,Quest.Utente3!H54)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>45</v>
@@ -9413,7 +9566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -9421,11 +9574,11 @@
         <v>47</v>
       </c>
       <c r="H56" s="10">
-        <f>AVERAGE(Quest.Utente1!H56,Quest.Utente2!H56,Quest.Utente3!H56,Quest.Utente4!H56,Quest.Utente5!H56)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H56,Quest.Utente2!H56,Quest.Utente5!H56,Quest.Utente4!H56,Quest.Utente3!H56)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -9433,11 +9586,11 @@
         <v>65</v>
       </c>
       <c r="H57" s="10">
-        <f>AVERAGE(Quest.Utente1!H57,Quest.Utente2!H57,Quest.Utente3!H57,Quest.Utente4!H57,Quest.Utente5!H57)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H57,Quest.Utente2!H57,Quest.Utente5!H57,Quest.Utente4!H57,Quest.Utente3!H57)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>18</v>
@@ -9450,7 +9603,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
@@ -9458,11 +9611,11 @@
         <v>108</v>
       </c>
       <c r="H59" s="10">
-        <f>AVERAGE(Quest.Utente1!H59,Quest.Utente2!H59,Quest.Utente3!H59,Quest.Utente4!H59,Quest.Utente5!H59)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H59,Quest.Utente2!H59,Quest.Utente5!H59,Quest.Utente4!H59,Quest.Utente3!H59)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -9470,24 +9623,24 @@
         <v>30</v>
       </c>
       <c r="H60" s="10">
-        <f>AVERAGE(Quest.Utente1!H60,Quest.Utente2!H60,Quest.Utente3!H60,Quest.Utente4!H60,Quest.Utente5!H60)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H60,Quest.Utente2!H60,Quest.Utente5!H60,Quest.Utente4!H60,Quest.Utente3!H60)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="H61" s="10">
-        <f>AVERAGE(Quest.Utente1!H61,Quest.Utente2!H61,Quest.Utente3!H61,Quest.Utente4!H61,Quest.Utente5!H61)</f>
+        <f>AVERAGE(Quest.Utente1!H61,Quest.Utente2!H61,Quest.Utente5!H61,Quest.Utente4!H61,Quest.Utente3!H61)</f>
         <v>5</v>
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>33</v>
@@ -9500,7 +9653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -9508,11 +9661,11 @@
         <v>35</v>
       </c>
       <c r="H63" s="10">
-        <f>AVERAGE(Quest.Utente1!H63,Quest.Utente2!H63,Quest.Utente3!H63,Quest.Utente4!H63,Quest.Utente5!H63)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H63,Quest.Utente2!H63,Quest.Utente5!H63,Quest.Utente4!H63,Quest.Utente3!H63)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -9520,12 +9673,12 @@
         <v>37</v>
       </c>
       <c r="H64" s="10">
-        <f>AVERAGE(Quest.Utente1!H64,Quest.Utente2!H64,Quest.Utente3!H64,Quest.Utente4!H64,Quest.Utente5!H64)</f>
-        <v>3</v>
+        <f>AVERAGE(Quest.Utente1!H64,Quest.Utente2!H64,Quest.Utente5!H64,Quest.Utente4!H64,Quest.Utente3!H64)</f>
+        <v>3.4</v>
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -9533,24 +9686,24 @@
         <v>63</v>
       </c>
       <c r="H65" s="10">
-        <f>AVERAGE(Quest.Utente1!H65,Quest.Utente2!H65,Quest.Utente3!H65,Quest.Utente4!H65,Quest.Utente5!H65)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H65,Quest.Utente2!H65,Quest.Utente5!H65,Quest.Utente4!H65,Quest.Utente3!H65)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H66" s="15">
         <f>AVERAGE(H63:H65)</f>
-        <v>3.6666666666666665</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
@@ -9558,11 +9711,11 @@
         <v>42</v>
       </c>
       <c r="H67" s="10">
-        <f>AVERAGE(Quest.Utente1!H67,Quest.Utente2!H67,Quest.Utente3!H67,Quest.Utente4!H67,Quest.Utente5!H67)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H67,Quest.Utente2!H67,Quest.Utente5!H67,Quest.Utente4!H67,Quest.Utente3!H67)</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>116</v>
       </c>
@@ -9570,24 +9723,24 @@
         <v>64</v>
       </c>
       <c r="H68" s="10">
-        <f>AVERAGE(Quest.Utente1!H68,Quest.Utente2!H68,Quest.Utente3!H68,Quest.Utente4!H68,Quest.Utente5!H68)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H68,Quest.Utente2!H68,Quest.Utente5!H68,Quest.Utente4!H68,Quest.Utente3!H68)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H69" s="11">
         <f>AVERAGE(H67:H68)</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>117</v>
       </c>
@@ -9595,11 +9748,11 @@
         <v>47</v>
       </c>
       <c r="H70" s="10">
-        <f>AVERAGE(Quest.Utente1!H70,Quest.Utente2!H70,Quest.Utente3!H70,Quest.Utente4!H70,Quest.Utente5!H70)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H70,Quest.Utente2!H70,Quest.Utente5!H70,Quest.Utente4!H70,Quest.Utente3!H70)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
@@ -9607,11 +9760,11 @@
         <v>65</v>
       </c>
       <c r="H71" s="10">
-        <f>AVERAGE(Quest.Utente1!H71,Quest.Utente2!H71,Quest.Utente3!H71,Quest.Utente4!H71,Quest.Utente5!H71)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente1!H71,Quest.Utente2!H71,Quest.Utente5!H71,Quest.Utente4!H71,Quest.Utente3!H71)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>18</v>
@@ -9624,7 +9777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>119</v>
       </c>
@@ -9632,11 +9785,11 @@
         <v>149</v>
       </c>
       <c r="H73" s="10">
-        <f>AVERAGE(Quest.Utente1!H73,Quest.Utente2!H73,Quest.Utente3!H73,Quest.Utente4!H73,Quest.Utente5!H73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H73,Quest.Utente5!H73)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -9644,11 +9797,11 @@
         <v>30</v>
       </c>
       <c r="H74" s="10">
-        <f>AVERAGE(Quest.Utente1!H74,Quest.Utente2!H74,Quest.Utente3!H74,Quest.Utente4!H74,Quest.Utente5!H74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H74,Quest.Utente5!H74)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>121</v>
       </c>
@@ -9656,24 +9809,24 @@
         <v>66</v>
       </c>
       <c r="H75" s="10">
-        <f>AVERAGE(Quest.Utente1!H75,Quest.Utente2!H75,Quest.Utente3!H75,Quest.Utente4!H75,Quest.Utente5!H75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H75,Quest.Utente5!H75)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H76" s="11">
         <f>AVERAGE(H73:H74)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
@@ -9681,12 +9834,12 @@
         <v>35</v>
       </c>
       <c r="H77" s="10">
-        <f>AVERAGE(Quest.Utente1!H77,Quest.Utente2!H77,Quest.Utente3!H77,Quest.Utente4!H77,Quest.Utente5!H77)</f>
-        <v>0</v>
+        <f>AVERAGE(Quest.Utente4!H77,Quest.Utente5!H77)</f>
+        <v>4</v>
       </c>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>123</v>
       </c>
@@ -9694,11 +9847,11 @@
         <v>37</v>
       </c>
       <c r="H78" s="10">
-        <f>AVERAGE(Quest.Utente1!H78,Quest.Utente2!H78,Quest.Utente3!H78,Quest.Utente4!H78,Quest.Utente5!H78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H78,Quest.Utente5!H78)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>124</v>
       </c>
@@ -9706,25 +9859,25 @@
         <v>63</v>
       </c>
       <c r="H79" s="10">
-        <f>AVERAGE(Quest.Utente1!H79,Quest.Utente2!H79,Quest.Utente3!H79,Quest.Utente4!H79,Quest.Utente5!H79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H79,Quest.Utente5!H79)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H80" s="11">
         <f>AVERAGE(H77:H78)</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
@@ -9732,11 +9885,11 @@
         <v>42</v>
       </c>
       <c r="H81" s="10">
-        <f>AVERAGE(Quest.Utente1!H81,Quest.Utente2!H81,Quest.Utente3!H81,Quest.Utente4!H81,Quest.Utente5!H81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H81,Quest.Utente5!H81)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>126</v>
       </c>
@@ -9744,24 +9897,24 @@
         <v>64</v>
       </c>
       <c r="H82" s="10">
-        <f>AVERAGE(Quest.Utente1!H82,Quest.Utente2!H82,Quest.Utente3!H82,Quest.Utente4!H82,Quest.Utente5!H82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H82,Quest.Utente5!H82)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H83" s="11">
         <f>AVERAGE(H81:H82)</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
@@ -9769,11 +9922,11 @@
         <v>47</v>
       </c>
       <c r="H84" s="10">
-        <f>AVERAGE(Quest.Utente1!H84,Quest.Utente2!H84,Quest.Utente3!H84,Quest.Utente4!H84,Quest.Utente5!H84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H84,Quest.Utente5!H84)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>128</v>
       </c>
@@ -9781,24 +9934,24 @@
         <v>49</v>
       </c>
       <c r="H85" s="10">
-        <f>AVERAGE(Quest.Utente1!H85,Quest.Utente2!H85,Quest.Utente3!H85,Quest.Utente4!H85,Quest.Utente5!H85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H85,Quest.Utente5!H85)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H86" s="11">
         <f>AVERAGE(H84:H85)</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
@@ -9806,11 +9959,11 @@
         <v>150</v>
       </c>
       <c r="H87" s="10">
-        <f>AVERAGE(Quest.Utente1!H87,Quest.Utente2!H87,Quest.Utente3!H87,Quest.Utente4!H87,Quest.Utente5!H87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H87,Quest.Utente5!H87)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
@@ -9818,11 +9971,11 @@
         <v>30</v>
       </c>
       <c r="H88" s="10">
-        <f>AVERAGE(Quest.Utente1!H88,Quest.Utente2!H88,Quest.Utente3!H88,Quest.Utente4!H88,Quest.Utente5!H88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H88,Quest.Utente5!H88)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>131</v>
       </c>
@@ -9830,24 +9983,24 @@
         <v>67</v>
       </c>
       <c r="H89" s="10">
-        <f>AVERAGE(Quest.Utente1!H89,Quest.Utente2!H89,Quest.Utente3!H89,Quest.Utente4!H89,Quest.Utente5!H89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H89,Quest.Utente5!H89)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H90" s="11">
         <f>AVERAGE(H87:H89)</f>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>132</v>
       </c>
@@ -9855,11 +10008,11 @@
         <v>35</v>
       </c>
       <c r="H91" s="10">
-        <f>AVERAGE(Quest.Utente1!H91,Quest.Utente2!H91,Quest.Utente3!H91,Quest.Utente4!H91,Quest.Utente5!H91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H91,Quest.Utente5!H91)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>133</v>
       </c>
@@ -9867,11 +10020,11 @@
         <v>37</v>
       </c>
       <c r="H92" s="10">
-        <f>AVERAGE(Quest.Utente1!H92,Quest.Utente2!H92,Quest.Utente3!H92,Quest.Utente4!H92,Quest.Utente5!H92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H92,Quest.Utente5!H92)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>134</v>
       </c>
@@ -9879,25 +10032,25 @@
         <v>63</v>
       </c>
       <c r="H93" s="10">
-        <f>AVERAGE(Quest.Utente1!H93,Quest.Utente2!H93,Quest.Utente3!H93,Quest.Utente4!H93,Quest.Utente5!H93)</f>
-        <v>0</v>
+        <f>AVERAGE(Quest.Utente4!H93,Quest.Utente5!H93)</f>
+        <v>4</v>
       </c>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H94" s="11">
         <f>AVERAGE(H91:H93)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>135</v>
       </c>
@@ -9905,11 +10058,11 @@
         <v>42</v>
       </c>
       <c r="H95" s="10">
-        <f>AVERAGE(Quest.Utente1!H95,Quest.Utente2!H95,Quest.Utente3!H95,Quest.Utente4!H95,Quest.Utente5!H95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H95,Quest.Utente5!H95)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>136</v>
       </c>
@@ -9917,25 +10070,25 @@
         <v>64</v>
       </c>
       <c r="H96" s="10">
-        <f>AVERAGE(Quest.Utente1!H96,Quest.Utente2!H96,Quest.Utente3!H96,Quest.Utente4!H96,Quest.Utente5!H96)</f>
-        <v>0</v>
+        <f>AVERAGE(Quest.Utente4!H96,Quest.Utente5!H96)</f>
+        <v>5</v>
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H97" s="11">
         <f>AVERAGE(H95:H96)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>137</v>
       </c>
@@ -9943,11 +10096,11 @@
         <v>47</v>
       </c>
       <c r="H98" s="10">
-        <f>AVERAGE(Quest.Utente1!H98,Quest.Utente2!H98,Quest.Utente3!H98,Quest.Utente4!H98,Quest.Utente5!H98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H98,Quest.Utente5!H98)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>138</v>
       </c>
@@ -9955,25 +10108,25 @@
         <v>49</v>
       </c>
       <c r="H99" s="10">
-        <f>AVERAGE(Quest.Utente1!H99,Quest.Utente2!H99,Quest.Utente3!H99,Quest.Utente4!H99,Quest.Utente5!H99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H99,Quest.Utente5!H99)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="15">
         <f>AVERAGE(H98:H99)</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>139</v>
       </c>
@@ -9981,11 +10134,11 @@
         <v>151</v>
       </c>
       <c r="H101" s="10">
-        <f>AVERAGE(Quest.Utente1!H101,Quest.Utente2!H101,Quest.Utente3!H101,Quest.Utente4!H101,Quest.Utente5!H101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H101,Quest.Utente5!H101)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
@@ -9993,11 +10146,11 @@
         <v>30</v>
       </c>
       <c r="H102" s="10">
-        <f>AVERAGE(Quest.Utente1!H102,Quest.Utente2!H102,Quest.Utente3!H102,Quest.Utente4!H102,Quest.Utente5!H102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H102,Quest.Utente5!H102)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>141</v>
       </c>
@@ -10005,24 +10158,24 @@
         <v>67</v>
       </c>
       <c r="H103" s="10">
-        <f>AVERAGE(Quest.Utente1!H103,Quest.Utente2!H103,Quest.Utente3!H103,Quest.Utente4!H103,Quest.Utente5!H103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H103,Quest.Utente5!H103)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H104" s="11">
         <f>AVERAGE(H101:H103)</f>
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>142</v>
       </c>
@@ -10030,11 +10183,11 @@
         <v>35</v>
       </c>
       <c r="H105" s="10">
-        <f>AVERAGE(Quest.Utente1!H105,Quest.Utente2!H105,Quest.Utente3!H105,Quest.Utente4!H105,Quest.Utente5!H105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H105,Quest.Utente5!H105)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
@@ -10042,11 +10195,11 @@
         <v>37</v>
       </c>
       <c r="H106" s="10">
-        <f>AVERAGE(Quest.Utente1!H106,Quest.Utente2!H106,Quest.Utente3!H106,Quest.Utente4!H106,Quest.Utente5!H106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H106,Quest.Utente5!H106)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>144</v>
       </c>
@@ -10054,25 +10207,25 @@
         <v>63</v>
       </c>
       <c r="H107" s="10">
-        <f>AVERAGE(Quest.Utente1!H107,Quest.Utente2!H107,Quest.Utente3!H107,Quest.Utente4!H107,Quest.Utente5!H107)</f>
-        <v>0</v>
+        <f>AVERAGE(Quest.Utente4!H107,Quest.Utente5!H107)</f>
+        <v>4.5</v>
       </c>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H108" s="11">
         <f>AVERAGE(H105:H107)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>145</v>
       </c>
@@ -10080,11 +10233,11 @@
         <v>42</v>
       </c>
       <c r="H109" s="10">
-        <f>AVERAGE(Quest.Utente1!H109,Quest.Utente2!H109,Quest.Utente3!H109,Quest.Utente4!H109,Quest.Utente5!H109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H109,Quest.Utente5!H109)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>146</v>
       </c>
@@ -10092,25 +10245,25 @@
         <v>64</v>
       </c>
       <c r="H110" s="10">
-        <f>AVERAGE(Quest.Utente1!H110,Quest.Utente2!H110,Quest.Utente3!H110,Quest.Utente4!H110,Quest.Utente5!H110)</f>
-        <v>0</v>
+        <f>AVERAGE(Quest.Utente4!H110,Quest.Utente5!H110)</f>
+        <v>4.5</v>
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H111" s="11">
         <f>AVERAGE(H109:H110)</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
@@ -10118,11 +10271,11 @@
         <v>47</v>
       </c>
       <c r="H112" s="10">
-        <f>AVERAGE(Quest.Utente1!H112,Quest.Utente2!H112,Quest.Utente3!H112,Quest.Utente4!H112,Quest.Utente5!H112)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H112,Quest.Utente5!H112)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
@@ -10130,14 +10283,14 @@
         <v>49</v>
       </c>
       <c r="H113" s="10">
-        <f>AVERAGE(Quest.Utente1!H113,Quest.Utente2!H113,Quest.Utente3!H113,Quest.Utente4!H113,Quest.Utente5!H113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <f>AVERAGE(Quest.Utente4!H113,Quest.Utente5!H113)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H114" s="15">
         <f>AVERAGE(H112:H113)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="4" t="s">
@@ -10154,15 +10307,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>70</v>
       </c>
@@ -10179,36 +10332,36 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <f>MEDIE!H5</f>
         <v>4</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <f>MEDIE!H9</f>
-        <v>3.3333333333333335</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="D2" s="16">
         <f>MEDIE!H12</f>
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="E2" s="16">
         <f>MEDIE!H15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <f>MEDIE!H19</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <f>MEDIE!H23</f>
         <v>4</v>
       </c>
@@ -10221,15 +10374,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <f>MEDIE!H34</f>
         <v>5</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>MEDIE!H38</f>
         <v>5</v>
       </c>
@@ -10242,15 +10395,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <f>MEDIE!H48</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f>MEDIE!H52</f>
         <v>3.6666666666666665</v>
       </c>
@@ -10263,92 +10416,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <f>MEDIE!H62</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f>MEDIE!H66</f>
-        <v>3.6666666666666665</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D6" s="16">
         <f>MEDIE!H69</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E6" s="16">
         <f>MEDIE!H72</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <f>MEDIE!H76</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
         <f>MEDIE!H80</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="D7" s="16">
         <f>MEDIE!H83</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E7" s="16">
         <f>MEDIE!H86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="16">
         <f>MEDIE!H90</f>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="C8" s="16">
         <f>MEDIE!H94</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="16">
         <f>MEDIE!H97</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="16">
         <f>MEDIE!H100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="16">
         <f>MEDIE!H104</f>
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C9" s="16">
         <f>MEDIE!H108</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D9" s="16">
         <f>MEDIE!H111</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E9" s="16">
         <f>MEDIE!H114</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B2:E9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10360,15 +10518,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A515E53002CF114584786A9F4F5BFE32" ma:contentTypeVersion="2" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="44edf9fe875534468fd0c2bdb255a987">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8326296-03fc-45dc-9d18-eca94a725608" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71bb35d5481de530d3f2621cb518b6f9" ns2:_="">
     <xsd:import namespace="a8326296-03fc-45dc-9d18-eca94a725608"/>
@@ -10500,6 +10649,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7239DB16-3DFC-4B30-872A-918F6EA26435}">
   <ds:schemaRefs>
@@ -10510,14 +10668,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3943D1-E20E-47DD-BA69-A8C83379ED2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A2503-A300-45EB-A376-764D39CF5BF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10533,4 +10683,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3943D1-E20E-47DD-BA69-A8C83379ED2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>